--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Liph-Lpar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Liph-Lpar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.216204</v>
       </c>
       <c r="I2">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J2">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.389882</v>
+        <v>1.299205</v>
       </c>
       <c r="N2">
-        <v>1.169646</v>
+        <v>3.897615</v>
       </c>
       <c r="O2">
-        <v>0.007281720355320281</v>
+        <v>0.02536612736128899</v>
       </c>
       <c r="P2">
-        <v>0.007281720355320281</v>
+        <v>0.025366127361289</v>
       </c>
       <c r="Q2">
-        <v>0.028098015976</v>
+        <v>0.09363110594</v>
       </c>
       <c r="R2">
-        <v>0.252882143784</v>
+        <v>0.84267995346</v>
       </c>
       <c r="S2">
-        <v>0.002168926608025881</v>
+        <v>0.006567069445549564</v>
       </c>
       <c r="T2">
-        <v>0.002168926608025881</v>
+        <v>0.006567069445549567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.216204</v>
       </c>
       <c r="I3">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J3">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>121.70623</v>
       </c>
       <c r="O3">
-        <v>0.7576914146333951</v>
+        <v>0.7920781634005235</v>
       </c>
       <c r="P3">
-        <v>0.7576914146333951</v>
+        <v>0.7920781634005236</v>
       </c>
       <c r="Q3">
         <v>2.923708194546667</v>
@@ -641,10 +641,10 @@
         <v>26.31337375092</v>
       </c>
       <c r="S3">
-        <v>0.2256852762370134</v>
+        <v>0.2050621378371204</v>
       </c>
       <c r="T3">
-        <v>0.2256852762370134</v>
+        <v>0.2050621378371204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,40 +673,40 @@
         <v>0.216204</v>
       </c>
       <c r="I4">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J4">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.489946</v>
+        <v>0.754289</v>
       </c>
       <c r="N4">
-        <v>1.469838</v>
+        <v>2.262867</v>
       </c>
       <c r="O4">
-        <v>0.009150588540142274</v>
+        <v>0.01472699908114525</v>
       </c>
       <c r="P4">
-        <v>0.009150588540142276</v>
+        <v>0.01472699908114525</v>
       </c>
       <c r="Q4">
-        <v>0.03530942832800001</v>
+        <v>0.054360099652</v>
       </c>
       <c r="R4">
-        <v>0.317784854952</v>
+        <v>0.489240896868</v>
       </c>
       <c r="S4">
-        <v>0.002725585987288072</v>
+        <v>0.003812691796147748</v>
       </c>
       <c r="T4">
-        <v>0.002725585987288073</v>
+        <v>0.003812691796147749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.216204</v>
       </c>
       <c r="I5">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J5">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.46471533333333</v>
+        <v>8.052155000000001</v>
       </c>
       <c r="N5">
-        <v>34.394146</v>
+        <v>24.156465</v>
       </c>
       <c r="O5">
-        <v>0.2141233783829104</v>
+        <v>0.1572130566483657</v>
       </c>
       <c r="P5">
-        <v>0.2141233783829104</v>
+        <v>0.1572130566483657</v>
       </c>
       <c r="Q5">
-        <v>0.8262391046426667</v>
+        <v>0.5803027065400002</v>
       </c>
       <c r="R5">
-        <v>7.436151941784</v>
+        <v>5.222724358860001</v>
       </c>
       <c r="S5">
-        <v>0.06377859490796953</v>
+        <v>0.0407010911067377</v>
       </c>
       <c r="T5">
-        <v>0.06377859490796953</v>
+        <v>0.04070109110673771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.216204</v>
       </c>
       <c r="I6">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J6">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.360827</v>
+        <v>0.4398656666666667</v>
       </c>
       <c r="N6">
-        <v>1.082481</v>
+        <v>1.319597</v>
       </c>
       <c r="O6">
-        <v>0.006739068001726551</v>
+        <v>0.008588089271920101</v>
       </c>
       <c r="P6">
-        <v>0.006739068001726552</v>
+        <v>0.008588089271920103</v>
       </c>
       <c r="Q6">
-        <v>0.026004080236</v>
+        <v>0.03170023886533334</v>
       </c>
       <c r="R6">
-        <v>0.234036722124</v>
+        <v>0.285302149788</v>
       </c>
       <c r="S6">
-        <v>0.002007292671100883</v>
+        <v>0.002223381513858826</v>
       </c>
       <c r="T6">
-        <v>0.002007292671100884</v>
+        <v>0.002223381513858827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +859,40 @@
         <v>0.216204</v>
       </c>
       <c r="I7">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J7">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2684533333333334</v>
+        <v>0.103848</v>
       </c>
       <c r="N7">
-        <v>0.8053600000000001</v>
+        <v>0.311544</v>
       </c>
       <c r="O7">
-        <v>0.00501383008650544</v>
+        <v>0.002027564236756431</v>
       </c>
       <c r="P7">
-        <v>0.00501383008650544</v>
+        <v>0.002027564236756432</v>
       </c>
       <c r="Q7">
-        <v>0.01934689482666667</v>
+        <v>0.007484117664000001</v>
       </c>
       <c r="R7">
-        <v>0.17412205344</v>
+        <v>0.06735705897600001</v>
       </c>
       <c r="S7">
-        <v>0.001493414873423005</v>
+        <v>0.0005249187216655041</v>
       </c>
       <c r="T7">
-        <v>0.001493414873423005</v>
+        <v>0.0005249187216655042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H8">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I8">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J8">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.389882</v>
+        <v>1.299205</v>
       </c>
       <c r="N8">
-        <v>1.169646</v>
+        <v>3.897615</v>
       </c>
       <c r="O8">
-        <v>0.007281720355320281</v>
+        <v>0.02536612736128899</v>
       </c>
       <c r="P8">
-        <v>0.007281720355320281</v>
+        <v>0.025366127361289</v>
       </c>
       <c r="Q8">
-        <v>0.027173605754</v>
+        <v>0.2330262749366667</v>
       </c>
       <c r="R8">
-        <v>0.2445624517859999</v>
+        <v>2.09723647443</v>
       </c>
       <c r="S8">
-        <v>0.002097570042176553</v>
+        <v>0.01634392454071248</v>
       </c>
       <c r="T8">
-        <v>0.002097570042176553</v>
+        <v>0.01634392454071248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H9">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I9">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J9">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>121.70623</v>
       </c>
       <c r="O9">
-        <v>0.7576914146333951</v>
+        <v>0.7920781634005235</v>
       </c>
       <c r="P9">
-        <v>0.7576914146333951</v>
+        <v>0.7920781634005236</v>
       </c>
       <c r="Q9">
-        <v>2.827519704103334</v>
+        <v>7.276436850095558</v>
       </c>
       <c r="R9">
-        <v>25.44767733693</v>
+        <v>65.48793165086001</v>
       </c>
       <c r="S9">
-        <v>0.2182603471428529</v>
+        <v>0.5103524692034995</v>
       </c>
       <c r="T9">
-        <v>0.2182603471428528</v>
+        <v>0.5103524692034995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H10">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I10">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J10">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.489946</v>
+        <v>0.754289</v>
       </c>
       <c r="N10">
-        <v>1.469838</v>
+        <v>2.262867</v>
       </c>
       <c r="O10">
-        <v>0.009150588540142274</v>
+        <v>0.01472699908114525</v>
       </c>
       <c r="P10">
-        <v>0.009150588540142276</v>
+        <v>0.01472699908114525</v>
       </c>
       <c r="Q10">
-        <v>0.034147766362</v>
+        <v>0.1352897778993334</v>
       </c>
       <c r="R10">
-        <v>0.307329897258</v>
+        <v>1.217608001094</v>
       </c>
       <c r="S10">
-        <v>0.002635915615196991</v>
+        <v>0.009488912448681677</v>
       </c>
       <c r="T10">
-        <v>0.002635915615196991</v>
+        <v>0.009488912448681677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H11">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I11">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J11">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.46471533333333</v>
+        <v>8.052155000000001</v>
       </c>
       <c r="N11">
-        <v>34.394146</v>
+        <v>24.156465</v>
       </c>
       <c r="O11">
-        <v>0.2141233783829104</v>
+        <v>0.1572130566483657</v>
       </c>
       <c r="P11">
-        <v>0.2141233783829104</v>
+        <v>0.1572130566483657</v>
       </c>
       <c r="Q11">
-        <v>0.7990562645873333</v>
+        <v>1.444239888903334</v>
       </c>
       <c r="R11">
-        <v>7.191506381285999</v>
+        <v>12.99815900013</v>
       </c>
       <c r="S11">
-        <v>0.06168031205667913</v>
+        <v>0.1012956490393131</v>
       </c>
       <c r="T11">
-        <v>0.06168031205667913</v>
+        <v>0.1012956490393131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H12">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I12">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J12">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.360827</v>
+        <v>0.4398656666666667</v>
       </c>
       <c r="N12">
-        <v>1.082481</v>
+        <v>1.319597</v>
       </c>
       <c r="O12">
-        <v>0.006739068001726551</v>
+        <v>0.008588089271920101</v>
       </c>
       <c r="P12">
-        <v>0.006739068001726552</v>
+        <v>0.008588089271920103</v>
       </c>
       <c r="Q12">
-        <v>0.025148559419</v>
+        <v>0.07889459921711112</v>
       </c>
       <c r="R12">
-        <v>0.226337034771</v>
+        <v>0.710051392954</v>
       </c>
       <c r="S12">
-        <v>0.001941253778344317</v>
+        <v>0.005533484911195838</v>
       </c>
       <c r="T12">
-        <v>0.001941253778344317</v>
+        <v>0.005533484911195838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1793606666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.5380820000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.6443208420397192</v>
+      </c>
+      <c r="J13">
+        <v>0.6443208420397191</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.069697</v>
-      </c>
-      <c r="H13">
-        <v>0.209091</v>
-      </c>
-      <c r="I13">
-        <v>0.2880596809302069</v>
-      </c>
-      <c r="J13">
-        <v>0.2880596809302068</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.2684533333333334</v>
+        <v>0.103848</v>
       </c>
       <c r="N13">
-        <v>0.8053600000000001</v>
+        <v>0.311544</v>
       </c>
       <c r="O13">
-        <v>0.00501383008650544</v>
+        <v>0.002027564236756431</v>
       </c>
       <c r="P13">
-        <v>0.00501383008650544</v>
+        <v>0.002027564236756432</v>
       </c>
       <c r="Q13">
-        <v>0.01871039197333333</v>
+        <v>0.018626246512</v>
       </c>
       <c r="R13">
-        <v>0.16839352776</v>
+        <v>0.167636218608</v>
       </c>
       <c r="S13">
-        <v>0.001444282294957029</v>
+        <v>0.001306401896316524</v>
       </c>
       <c r="T13">
-        <v>0.001444282294957028</v>
+        <v>0.001306401896316524</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H14">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I14">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J14">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.389882</v>
+        <v>1.299205</v>
       </c>
       <c r="N14">
-        <v>1.169646</v>
+        <v>3.897615</v>
       </c>
       <c r="O14">
-        <v>0.007281720355320281</v>
+        <v>0.02536612736128899</v>
       </c>
       <c r="P14">
-        <v>0.007281720355320281</v>
+        <v>0.025366127361289</v>
       </c>
       <c r="Q14">
-        <v>0.02814545161933333</v>
+        <v>0.035004480315</v>
       </c>
       <c r="R14">
-        <v>0.253309064574</v>
+        <v>0.315040322835</v>
       </c>
       <c r="S14">
-        <v>0.00217258823413793</v>
+        <v>0.002455133375026945</v>
       </c>
       <c r="T14">
-        <v>0.00217258823413793</v>
+        <v>0.002455133375026947</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H15">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I15">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J15">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>121.70623</v>
       </c>
       <c r="O15">
-        <v>0.7576914146333951</v>
+        <v>0.7920781634005235</v>
       </c>
       <c r="P15">
-        <v>0.7576914146333951</v>
+        <v>0.7920781634005236</v>
       </c>
       <c r="Q15">
-        <v>2.928644058318889</v>
+        <v>1.09304365163</v>
       </c>
       <c r="R15">
-        <v>26.35779652487</v>
+        <v>9.837392864670001</v>
       </c>
       <c r="S15">
-        <v>0.2260662827208273</v>
+        <v>0.07666355635990361</v>
       </c>
       <c r="T15">
-        <v>0.2260662827208273</v>
+        <v>0.07666355635990363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H16">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I16">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J16">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.489946</v>
+        <v>0.754289</v>
       </c>
       <c r="N16">
-        <v>1.469838</v>
+        <v>2.262867</v>
       </c>
       <c r="O16">
-        <v>0.009150588540142274</v>
+        <v>0.01472699908114525</v>
       </c>
       <c r="P16">
-        <v>0.009150588540142276</v>
+        <v>0.01472699908114525</v>
       </c>
       <c r="Q16">
-        <v>0.03536903842466667</v>
+        <v>0.020322808527</v>
       </c>
       <c r="R16">
-        <v>0.318321345822</v>
+        <v>0.182905276743</v>
       </c>
       <c r="S16">
-        <v>0.002730187377111388</v>
+        <v>0.001425394836315824</v>
       </c>
       <c r="T16">
-        <v>0.002730187377111388</v>
+        <v>0.001425394836315824</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H17">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I17">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J17">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.46471533333333</v>
+        <v>8.052155000000001</v>
       </c>
       <c r="N17">
-        <v>34.394146</v>
+        <v>24.156465</v>
       </c>
       <c r="O17">
-        <v>0.2141233783829104</v>
+        <v>0.1572130566483657</v>
       </c>
       <c r="P17">
-        <v>0.2141233783829104</v>
+        <v>0.1572130566483657</v>
       </c>
       <c r="Q17">
-        <v>0.8276339783415555</v>
+        <v>0.216949212165</v>
       </c>
       <c r="R17">
-        <v>7.448705805074</v>
+        <v>1.952542909485</v>
       </c>
       <c r="S17">
-        <v>0.06388626723198484</v>
+        <v>0.01521631650231495</v>
       </c>
       <c r="T17">
-        <v>0.06388626723198486</v>
+        <v>0.01521631650231496</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H18">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I18">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J18">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.360827</v>
+        <v>0.4398656666666667</v>
       </c>
       <c r="N18">
-        <v>1.082481</v>
+        <v>1.319597</v>
       </c>
       <c r="O18">
-        <v>0.006739068001726551</v>
+        <v>0.008588089271920101</v>
       </c>
       <c r="P18">
-        <v>0.006739068001726552</v>
+        <v>0.008588089271920103</v>
       </c>
       <c r="Q18">
-        <v>0.02604798085433334</v>
+        <v>0.011851300657</v>
       </c>
       <c r="R18">
-        <v>0.234431827689</v>
+        <v>0.106661705913</v>
       </c>
       <c r="S18">
-        <v>0.002010681423505796</v>
+        <v>0.0008312228468654373</v>
       </c>
       <c r="T18">
-        <v>0.002010681423505797</v>
+        <v>0.0008312228468654376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,790 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H19">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I19">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J19">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2684533333333334</v>
+        <v>0.103848</v>
       </c>
       <c r="N19">
-        <v>0.8053600000000001</v>
+        <v>0.311544</v>
       </c>
       <c r="O19">
-        <v>0.00501383008650544</v>
+        <v>0.002027564236756431</v>
       </c>
       <c r="P19">
-        <v>0.00501383008650544</v>
+        <v>0.002027564236756432</v>
       </c>
       <c r="Q19">
-        <v>0.01937955664888889</v>
+        <v>0.002797976664</v>
       </c>
       <c r="R19">
-        <v>0.17441600984</v>
+        <v>0.025181789976</v>
       </c>
       <c r="S19">
-        <v>0.001495936086854761</v>
+        <v>0.000196243618774403</v>
       </c>
       <c r="T19">
-        <v>0.001495936086854761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.016601</v>
-      </c>
-      <c r="H20">
-        <v>0.049803</v>
-      </c>
-      <c r="I20">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J20">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.389882</v>
-      </c>
-      <c r="N20">
-        <v>1.169646</v>
-      </c>
-      <c r="O20">
-        <v>0.007281720355320281</v>
-      </c>
-      <c r="P20">
-        <v>0.007281720355320281</v>
-      </c>
-      <c r="Q20">
-        <v>0.006472431082</v>
-      </c>
-      <c r="R20">
-        <v>0.058251879738</v>
-      </c>
-      <c r="S20">
-        <v>0.0004996163431736367</v>
-      </c>
-      <c r="T20">
-        <v>0.0004996163431736367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.016601</v>
-      </c>
-      <c r="H21">
-        <v>0.049803</v>
-      </c>
-      <c r="I21">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J21">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>40.56874333333334</v>
-      </c>
-      <c r="N21">
-        <v>121.70623</v>
-      </c>
-      <c r="O21">
-        <v>0.7576914146333951</v>
-      </c>
-      <c r="P21">
-        <v>0.7576914146333951</v>
-      </c>
-      <c r="Q21">
-        <v>0.6734817080766667</v>
-      </c>
-      <c r="R21">
-        <v>6.06133537269</v>
-      </c>
-      <c r="S21">
-        <v>0.05198702989968723</v>
-      </c>
-      <c r="T21">
-        <v>0.05198702989968723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.016601</v>
-      </c>
-      <c r="H22">
-        <v>0.049803</v>
-      </c>
-      <c r="I22">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J22">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.489946</v>
-      </c>
-      <c r="N22">
-        <v>1.469838</v>
-      </c>
-      <c r="O22">
-        <v>0.009150588540142274</v>
-      </c>
-      <c r="P22">
-        <v>0.009150588540142276</v>
-      </c>
-      <c r="Q22">
-        <v>0.008133593546</v>
-      </c>
-      <c r="R22">
-        <v>0.073202341914</v>
-      </c>
-      <c r="S22">
-        <v>0.0006278438832071001</v>
-      </c>
-      <c r="T22">
-        <v>0.0006278438832071002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.016601</v>
-      </c>
-      <c r="H23">
-        <v>0.049803</v>
-      </c>
-      <c r="I23">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J23">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>11.46471533333333</v>
-      </c>
-      <c r="N23">
-        <v>34.394146</v>
-      </c>
-      <c r="O23">
-        <v>0.2141233783829104</v>
-      </c>
-      <c r="P23">
-        <v>0.2141233783829104</v>
-      </c>
-      <c r="Q23">
-        <v>0.1903257392486667</v>
-      </c>
-      <c r="R23">
-        <v>1.712931653238</v>
-      </c>
-      <c r="S23">
-        <v>0.01469151987105514</v>
-      </c>
-      <c r="T23">
-        <v>0.01469151987105514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.016601</v>
-      </c>
-      <c r="H24">
-        <v>0.049803</v>
-      </c>
-      <c r="I24">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J24">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.360827</v>
-      </c>
-      <c r="N24">
-        <v>1.082481</v>
-      </c>
-      <c r="O24">
-        <v>0.006739068001726551</v>
-      </c>
-      <c r="P24">
-        <v>0.006739068001726552</v>
-      </c>
-      <c r="Q24">
-        <v>0.005990089027000001</v>
-      </c>
-      <c r="R24">
-        <v>0.053910801243</v>
-      </c>
-      <c r="S24">
-        <v>0.0004623836603339314</v>
-      </c>
-      <c r="T24">
-        <v>0.0004623836603339314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.016601</v>
-      </c>
-      <c r="H25">
-        <v>0.049803</v>
-      </c>
-      <c r="I25">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J25">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.2684533333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.8053600000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.00501383008650544</v>
-      </c>
-      <c r="P25">
-        <v>0.00501383008650544</v>
-      </c>
-      <c r="Q25">
-        <v>0.004456593786666668</v>
-      </c>
-      <c r="R25">
-        <v>0.04010934408</v>
-      </c>
-      <c r="S25">
-        <v>0.0003440109384705459</v>
-      </c>
-      <c r="T25">
-        <v>0.0003440109384705459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.034193</v>
-      </c>
-      <c r="I26">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J26">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.389882</v>
-      </c>
-      <c r="N26">
-        <v>1.169646</v>
-      </c>
-      <c r="O26">
-        <v>0.007281720355320281</v>
-      </c>
-      <c r="P26">
-        <v>0.007281720355320281</v>
-      </c>
-      <c r="Q26">
-        <v>0.004443745075333333</v>
-      </c>
-      <c r="R26">
-        <v>0.039993705678</v>
-      </c>
-      <c r="S26">
-        <v>0.00034301912780628</v>
-      </c>
-      <c r="T26">
-        <v>0.00034301912780628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.034193</v>
-      </c>
-      <c r="I27">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J27">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>40.56874333333334</v>
-      </c>
-      <c r="N27">
-        <v>121.70623</v>
-      </c>
-      <c r="O27">
-        <v>0.7576914146333951</v>
-      </c>
-      <c r="P27">
-        <v>0.7576914146333951</v>
-      </c>
-      <c r="Q27">
-        <v>0.462389013598889</v>
-      </c>
-      <c r="R27">
-        <v>4.161501122390001</v>
-      </c>
-      <c r="S27">
-        <v>0.03569247863301419</v>
-      </c>
-      <c r="T27">
-        <v>0.03569247863301419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.034193</v>
-      </c>
-      <c r="I28">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J28">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.489946</v>
-      </c>
-      <c r="N28">
-        <v>1.469838</v>
-      </c>
-      <c r="O28">
-        <v>0.009150588540142274</v>
-      </c>
-      <c r="P28">
-        <v>0.009150588540142276</v>
-      </c>
-      <c r="Q28">
-        <v>0.005584241192666667</v>
-      </c>
-      <c r="R28">
-        <v>0.050258170734</v>
-      </c>
-      <c r="S28">
-        <v>0.0004310556773387221</v>
-      </c>
-      <c r="T28">
-        <v>0.0004310556773387221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.034193</v>
-      </c>
-      <c r="I29">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J29">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>11.46471533333333</v>
-      </c>
-      <c r="N29">
-        <v>34.394146</v>
-      </c>
-      <c r="O29">
-        <v>0.2141233783829104</v>
-      </c>
-      <c r="P29">
-        <v>0.2141233783829104</v>
-      </c>
-      <c r="Q29">
-        <v>0.1306710037975556</v>
-      </c>
-      <c r="R29">
-        <v>1.176039034178</v>
-      </c>
-      <c r="S29">
-        <v>0.01008668431522174</v>
-      </c>
-      <c r="T29">
-        <v>0.01008668431522175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.034193</v>
-      </c>
-      <c r="I30">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J30">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.360827</v>
-      </c>
-      <c r="N30">
-        <v>1.082481</v>
-      </c>
-      <c r="O30">
-        <v>0.006739068001726551</v>
-      </c>
-      <c r="P30">
-        <v>0.006739068001726552</v>
-      </c>
-      <c r="Q30">
-        <v>0.004112585870333333</v>
-      </c>
-      <c r="R30">
-        <v>0.037013272833</v>
-      </c>
-      <c r="S30">
-        <v>0.0003174564684416223</v>
-      </c>
-      <c r="T30">
-        <v>0.0003174564684416223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.034193</v>
-      </c>
-      <c r="I31">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J31">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2684533333333334</v>
-      </c>
-      <c r="N31">
-        <v>0.8053600000000001</v>
-      </c>
-      <c r="O31">
-        <v>0.00501383008650544</v>
-      </c>
-      <c r="P31">
-        <v>0.00501383008650544</v>
-      </c>
-      <c r="Q31">
-        <v>0.003059741608888889</v>
-      </c>
-      <c r="R31">
-        <v>0.02753767448</v>
-      </c>
-      <c r="S31">
-        <v>0.0002361858928000999</v>
-      </c>
-      <c r="T31">
-        <v>0.0002361858928000999</v>
+        <v>0.0001962436187744031</v>
       </c>
     </row>
   </sheetData>
